--- a/natmiOut/OldD4/LR-pairs_lrc2p/H2-T23-Klrd1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/H2-T23-Klrd1.xlsx
@@ -534,52 +534,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.455632882029</v>
+        <v>15.24968266666667</v>
       </c>
       <c r="H2">
-        <v>14.455632882029</v>
+        <v>45.749048</v>
       </c>
       <c r="I2">
-        <v>0.1314261938410006</v>
+        <v>0.1107894317754914</v>
       </c>
       <c r="J2">
-        <v>0.1314261938410006</v>
+        <v>0.1112362699856105</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.80650600183113</v>
+        <v>5.450693999999999</v>
       </c>
       <c r="N2">
-        <v>1.80650600183113</v>
+        <v>16.352082</v>
       </c>
       <c r="O2">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="P2">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="Q2">
-        <v>26.11418756165283</v>
+        <v>83.12135381310399</v>
       </c>
       <c r="R2">
-        <v>26.11418756165283</v>
+        <v>748.092184317936</v>
       </c>
       <c r="S2">
-        <v>0.05831417333098333</v>
+        <v>0.07076750525056649</v>
       </c>
       <c r="T2">
-        <v>0.05831417333098333</v>
+        <v>0.0710529262052008</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.455632882029</v>
+        <v>15.24968266666667</v>
       </c>
       <c r="H3">
-        <v>14.455632882029</v>
+        <v>45.749048</v>
       </c>
       <c r="I3">
-        <v>0.1314261938410006</v>
+        <v>0.1107894317754914</v>
       </c>
       <c r="J3">
-        <v>0.1314261938410006</v>
+        <v>0.1112362699856105</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.26492628314722</v>
+        <v>3.082591</v>
       </c>
       <c r="N3">
-        <v>2.26492628314722</v>
+        <v>9.247773</v>
       </c>
       <c r="O3">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="P3">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="Q3">
-        <v>32.74094285403468</v>
+        <v>47.00853454112267</v>
       </c>
       <c r="R3">
-        <v>32.74094285403468</v>
+        <v>423.0768108701041</v>
       </c>
       <c r="S3">
-        <v>0.07311202051001724</v>
+        <v>0.04002192652492491</v>
       </c>
       <c r="T3">
-        <v>0.07311202051001724</v>
+        <v>0.04018334378040965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.1986762093594</v>
+        <v>24.18733</v>
       </c>
       <c r="H4">
-        <v>19.1986762093594</v>
+        <v>72.56198999999999</v>
       </c>
       <c r="I4">
-        <v>0.1745484934193843</v>
+        <v>0.1757217251952191</v>
       </c>
       <c r="J4">
-        <v>0.1745484934193843</v>
+        <v>0.1764304496638524</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.80650600183113</v>
+        <v>5.450693999999999</v>
       </c>
       <c r="N4">
-        <v>1.80650600183113</v>
+        <v>16.352082</v>
       </c>
       <c r="O4">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="P4">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="Q4">
-        <v>34.68252379942029</v>
+        <v>131.83773450702</v>
       </c>
       <c r="R4">
-        <v>34.68252379942029</v>
+        <v>1186.53961056318</v>
       </c>
       <c r="S4">
-        <v>0.07744765942346406</v>
+        <v>0.1122434505810165</v>
       </c>
       <c r="T4">
-        <v>0.07744765942346406</v>
+        <v>0.1126961531696248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.1986762093594</v>
+        <v>24.18733</v>
       </c>
       <c r="H5">
-        <v>19.1986762093594</v>
+        <v>72.56198999999999</v>
       </c>
       <c r="I5">
-        <v>0.1745484934193843</v>
+        <v>0.1757217251952191</v>
       </c>
       <c r="J5">
-        <v>0.1745484934193843</v>
+        <v>0.1764304496638524</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.26492628314722</v>
+        <v>3.082591</v>
       </c>
       <c r="N5">
-        <v>2.26492628314722</v>
+        <v>9.247773</v>
       </c>
       <c r="O5">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="P5">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="Q5">
-        <v>43.48358634821135</v>
+        <v>74.55964577203001</v>
       </c>
       <c r="R5">
-        <v>43.48358634821135</v>
+        <v>671.0368119482699</v>
       </c>
       <c r="S5">
-        <v>0.09710083399592026</v>
+        <v>0.06347827461420258</v>
       </c>
       <c r="T5">
-        <v>0.09710083399592026</v>
+        <v>0.06373429649422753</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.938923270611</v>
+        <v>59.44474733333333</v>
       </c>
       <c r="H6">
-        <v>37.938923270611</v>
+        <v>178.334242</v>
       </c>
       <c r="I6">
-        <v>0.3449290892051423</v>
+        <v>0.4318679885380996</v>
       </c>
       <c r="J6">
-        <v>0.3449290892051423</v>
+        <v>0.4336098073732854</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.80650600183113</v>
+        <v>5.450693999999999</v>
       </c>
       <c r="N6">
-        <v>1.80650600183113</v>
+        <v>16.352082</v>
       </c>
       <c r="O6">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="P6">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="Q6">
-        <v>68.53689259136949</v>
+        <v>324.015127621316</v>
       </c>
       <c r="R6">
-        <v>68.53689259136949</v>
+        <v>2916.136148591844</v>
       </c>
       <c r="S6">
-        <v>0.1530460108975012</v>
+        <v>0.2758586234863465</v>
       </c>
       <c r="T6">
-        <v>0.1530460108975012</v>
+        <v>0.2769712221484132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.938923270611</v>
+        <v>59.44474733333333</v>
       </c>
       <c r="H7">
-        <v>37.938923270611</v>
+        <v>178.334242</v>
       </c>
       <c r="I7">
-        <v>0.3449290892051423</v>
+        <v>0.4318679885380996</v>
       </c>
       <c r="J7">
-        <v>0.3449290892051423</v>
+        <v>0.4336098073732854</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.26492628314722</v>
+        <v>3.082591</v>
       </c>
       <c r="N7">
-        <v>2.26492628314722</v>
+        <v>9.247773</v>
       </c>
       <c r="O7">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="P7">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="Q7">
-        <v>85.92886446991254</v>
+        <v>183.2438431270074</v>
       </c>
       <c r="R7">
-        <v>85.92886446991254</v>
+        <v>1649.194588143066</v>
       </c>
       <c r="S7">
-        <v>0.191883078307641</v>
+        <v>0.1560093650517531</v>
       </c>
       <c r="T7">
-        <v>0.191883078307641</v>
+        <v>0.1566385852248722</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36.7393648924882</v>
+        <v>37.10510833333333</v>
       </c>
       <c r="H8">
-        <v>36.7393648924882</v>
+        <v>111.315325</v>
       </c>
       <c r="I8">
-        <v>0.3340230712387649</v>
+        <v>0.2695697974885543</v>
       </c>
       <c r="J8">
-        <v>0.3340230712387649</v>
+        <v>0.2706570319285326</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.80650600183113</v>
+        <v>5.450693999999999</v>
       </c>
       <c r="N8">
-        <v>1.80650600183113</v>
+        <v>16.352082</v>
       </c>
       <c r="O8">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="P8">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="Q8">
-        <v>66.36988318174384</v>
+        <v>202.2485913618499</v>
       </c>
       <c r="R8">
-        <v>66.36988318174384</v>
+        <v>1820.23732225665</v>
       </c>
       <c r="S8">
-        <v>0.1482069799292031</v>
+        <v>0.1721895469039271</v>
       </c>
       <c r="T8">
-        <v>0.1482069799292031</v>
+        <v>0.1728840253185802</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>36.7393648924882</v>
+        <v>37.10510833333333</v>
       </c>
       <c r="H9">
-        <v>36.7393648924882</v>
+        <v>111.315325</v>
       </c>
       <c r="I9">
-        <v>0.3340230712387649</v>
+        <v>0.2695697974885543</v>
       </c>
       <c r="J9">
-        <v>0.3340230712387649</v>
+        <v>0.2706570319285326</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.26492628314722</v>
+        <v>3.082591</v>
       </c>
       <c r="N9">
-        <v>2.26492628314722</v>
+        <v>9.247773</v>
       </c>
       <c r="O9">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="P9">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="Q9">
-        <v>83.21195317113275</v>
+        <v>114.3798730023583</v>
       </c>
       <c r="R9">
-        <v>83.21195317113275</v>
+        <v>1029.418857021225</v>
       </c>
       <c r="S9">
-        <v>0.1858160913095618</v>
+        <v>0.09738025058462715</v>
       </c>
       <c r="T9">
-        <v>0.1858160913095618</v>
+        <v>0.09777300660995236</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.65790357000882</v>
+        <v>1.6587755</v>
       </c>
       <c r="H10">
-        <v>1.65790357000882</v>
+        <v>3.317551</v>
       </c>
       <c r="I10">
-        <v>0.0150731522957079</v>
+        <v>0.01205105700263577</v>
       </c>
       <c r="J10">
-        <v>0.0150731522957079</v>
+        <v>0.00806644104871935</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.80650600183113</v>
+        <v>5.450693999999999</v>
       </c>
       <c r="N10">
-        <v>1.80650600183113</v>
+        <v>16.352082</v>
       </c>
       <c r="O10">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="P10">
-        <v>0.4437028238186052</v>
+        <v>0.6387568210835569</v>
       </c>
       <c r="Q10">
-        <v>2.995012749678191</v>
+        <v>9.041477665196998</v>
       </c>
       <c r="R10">
-        <v>2.995012749678191</v>
+        <v>54.24886599118199</v>
       </c>
       <c r="S10">
-        <v>0.006688000237453488</v>
+        <v>0.00769769486170036</v>
       </c>
       <c r="T10">
-        <v>0.006688000237453488</v>
+        <v>0.005152494241737885</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.65790357000882</v>
+        <v>1.6587755</v>
       </c>
       <c r="H11">
-        <v>1.65790357000882</v>
+        <v>3.317551</v>
       </c>
       <c r="I11">
-        <v>0.0150731522957079</v>
+        <v>0.01205105700263577</v>
       </c>
       <c r="J11">
-        <v>0.0150731522957079</v>
+        <v>0.00806644104871935</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.26492628314722</v>
+        <v>3.082591</v>
       </c>
       <c r="N11">
-        <v>2.26492628314722</v>
+        <v>9.247773</v>
       </c>
       <c r="O11">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="P11">
-        <v>0.5562971761813947</v>
+        <v>0.3612431789164431</v>
       </c>
       <c r="Q11">
-        <v>3.755029370636584</v>
+        <v>5.113326427320501</v>
       </c>
       <c r="R11">
-        <v>3.755029370636584</v>
+        <v>30.679958563923</v>
       </c>
       <c r="S11">
-        <v>0.008385152058254413</v>
+        <v>0.004353362140935408</v>
       </c>
       <c r="T11">
-        <v>0.008385152058254413</v>
+        <v>0.002913946806981465</v>
       </c>
     </row>
   </sheetData>
